--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.293599698770853</v>
+        <v>-0.2138542824830171</v>
       </c>
       <c r="C2">
-        <v>0.8734082306395603</v>
+        <v>0.6148378473415126</v>
       </c>
       <c r="D2">
-        <v>0.6184602207737764</v>
+        <v>0.4252897029004065</v>
       </c>
       <c r="E2">
-        <v>0.2734697458838853</v>
+        <v>0.3099432430440749</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.08081041195970239</v>
+        <v>-0.2327346614498219</v>
       </c>
       <c r="C3">
-        <v>0.1692486641703847</v>
+        <v>0.7010702447508154</v>
       </c>
       <c r="D3">
-        <v>0.2094561592896756</v>
+        <v>0.5255619928043028</v>
       </c>
       <c r="E3">
-        <v>0.1132345934649873</v>
+        <v>0.2725514231183482</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.2600295489344828</v>
+        <v>-0.2945759036892915</v>
       </c>
       <c r="C4">
-        <v>0.7391984364359163</v>
+        <v>0.9268570347755798</v>
       </c>
       <c r="D4">
-        <v>0.8514178042545992</v>
+        <v>0.5890554333815724</v>
       </c>
       <c r="E4">
-        <v>0.08797500535791306</v>
+        <v>0.2897764105764168</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1645217097726365</v>
+        <v>-0.01207710989251842</v>
       </c>
       <c r="C5">
-        <v>0.4378721687480411</v>
+        <v>0.03576599214574692</v>
       </c>
       <c r="D5">
-        <v>0.3981310906153819</v>
+        <v>0.02605554362123501</v>
       </c>
       <c r="E5">
-        <v>0.2158102873496521</v>
+        <v>0.0187297162613364</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1755877310101607</v>
+        <v>-0.1799815292591683</v>
       </c>
       <c r="C6">
-        <v>0.538232377659993</v>
+        <v>0.5320650400275736</v>
       </c>
       <c r="D6">
-        <v>0.5082878038287642</v>
+        <v>0.4595476281905088</v>
       </c>
       <c r="E6">
-        <v>0.1219275730788462</v>
+        <v>0.1661974157604244</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.3958867078344999</v>
+        <v>-0.001558420442824422</v>
       </c>
       <c r="C7">
-        <v>0.6586245432313519</v>
+        <v>0.003594309397360493</v>
       </c>
       <c r="D7">
-        <v>0.9419271034131904</v>
+        <v>0.003726548170662696</v>
       </c>
       <c r="E7">
-        <v>0.3098474853226306</v>
+        <v>0.002139792710457881</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.1090822302845202</v>
+        <v>-0.2262341221599226</v>
       </c>
       <c r="C8">
-        <v>0.3168602602210056</v>
+        <v>0.6755380377740339</v>
       </c>
       <c r="D8">
-        <v>0.4120422996971101</v>
+        <v>0.5292174284619037</v>
       </c>
       <c r="E8">
-        <v>0.1143554669858778</v>
+        <v>0.1881615577805479</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.2528765773479033</v>
+        <v>-0.07744597879155628</v>
       </c>
       <c r="C9">
-        <v>0.7451227443720979</v>
+        <v>0.19908226384998</v>
       </c>
       <c r="D9">
-        <v>0.4521566380420893</v>
+        <v>0.1800759697155216</v>
       </c>
       <c r="E9">
-        <v>0.2505979879399549</v>
+        <v>0.1416265598007278</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2490348573287656</v>
+        <v>-0.2420166357571246</v>
       </c>
       <c r="C10">
-        <v>0.8592073589593506</v>
+        <v>0.7014780811956941</v>
       </c>
       <c r="D10">
-        <v>0.6328716733209618</v>
+        <v>0.5705012568392415</v>
       </c>
       <c r="E10">
-        <v>0.0677341807359324</v>
+        <v>0.3200123971921094</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.08977294614700712</v>
+        <v>-0.2024157466864437</v>
       </c>
       <c r="C11">
-        <v>0.1423566501822525</v>
+        <v>0.6396809582893886</v>
       </c>
       <c r="D11">
-        <v>0.2505397482606797</v>
+        <v>0.4144505020857349</v>
       </c>
       <c r="E11">
-        <v>0.1176001110657942</v>
+        <v>0.2077077249327759</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.3127187785007129</v>
+        <v>-0.2856818140003737</v>
       </c>
       <c r="C12">
-        <v>0.6199016932151279</v>
+        <v>0.6614191289184893</v>
       </c>
       <c r="D12">
-        <v>0.8858376685958773</v>
+        <v>0.7394959107193056</v>
       </c>
       <c r="E12">
-        <v>0.2220325084514432</v>
+        <v>0.3864213009668134</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.01107206936618886</v>
+        <v>-0.2590538251405692</v>
       </c>
       <c r="C13">
-        <v>0.02897552561997898</v>
+        <v>0.553134474467068</v>
       </c>
       <c r="D13">
-        <v>0.02483130590087512</v>
+        <v>0.5774256562604996</v>
       </c>
       <c r="E13">
-        <v>0.0177682301789442</v>
+        <v>0.3471082672143836</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.1721235383066994</v>
+        <v>-0.215361228666532</v>
       </c>
       <c r="C14">
-        <v>0.4532313990978485</v>
+        <v>0.556865888704115</v>
       </c>
       <c r="D14">
-        <v>0.4329039815492852</v>
+        <v>0.4317584235909339</v>
       </c>
       <c r="E14">
-        <v>0.1717907482206492</v>
+        <v>0.2172259401873494</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.3741824293588188</v>
+        <v>-0.2582322711059854</v>
       </c>
       <c r="C15">
-        <v>0.9452070842528842</v>
+        <v>0.705734860325779</v>
       </c>
       <c r="D15">
-        <v>0.8368985440360891</v>
+        <v>0.6350234511731041</v>
       </c>
       <c r="E15">
-        <v>0.3193629580828427</v>
+        <v>0.2560380495304079</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.2820567809491105</v>
+        <v>-0.06740261339690992</v>
       </c>
       <c r="C16">
-        <v>0.7764692065810792</v>
+        <v>0.1653847565769681</v>
       </c>
       <c r="D16">
-        <v>0.7894896471527008</v>
+        <v>0.1759036839833095</v>
       </c>
       <c r="E16">
-        <v>0.1663970667806158</v>
+        <v>0.1582743261021202</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2491034364541621</v>
+        <v>-0.1846819954123742</v>
       </c>
       <c r="C17">
-        <v>0.6419432065529665</v>
+        <v>0.4762724553791611</v>
       </c>
       <c r="D17">
-        <v>0.6860664415838044</v>
+        <v>0.4215192125564796</v>
       </c>
       <c r="E17">
-        <v>-0.02087830874572989</v>
+        <v>0.2330579578289217</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1661378570449223</v>
+        <v>-0.01200799228615144</v>
       </c>
       <c r="C18">
-        <v>0.4379477056330874</v>
+        <v>0.03145576721090539</v>
       </c>
       <c r="D18">
-        <v>0.372145886541759</v>
+        <v>0.02972423094629232</v>
       </c>
       <c r="E18">
-        <v>0.2628387195588983</v>
+        <v>0.02049620065637713</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.2387636204662807</v>
+        <v>-0.2260137422042368</v>
       </c>
       <c r="C19">
-        <v>0.4939853514678121</v>
+        <v>0.7794066961857505</v>
       </c>
       <c r="D19">
-        <v>0.7933755376003</v>
+        <v>0.2931542440787351</v>
       </c>
       <c r="E19">
-        <v>0.2237408591001656</v>
+        <v>0.4764202206124841</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.2204743969487642</v>
+        <v>-0.1914608623217658</v>
       </c>
       <c r="C20">
-        <v>0.5954027476791162</v>
+        <v>0.5706220094553398</v>
       </c>
       <c r="D20">
-        <v>0.3512943843386116</v>
+        <v>0.382003897747149</v>
       </c>
       <c r="E20">
-        <v>0.2267581046087667</v>
+        <v>0.1958624294705359</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.2486296617483655</v>
+        <v>-0.288564867621961</v>
       </c>
       <c r="C21">
-        <v>0.5763217625293237</v>
+        <v>0.6833766617226709</v>
       </c>
       <c r="D21">
-        <v>0.6183401436180056</v>
+        <v>0.7238103062212879</v>
       </c>
       <c r="E21">
-        <v>0.2320291555643211</v>
+        <v>0.2594326927221677</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.06794288669159181</v>
+        <v>-0.181161919119562</v>
       </c>
       <c r="C22">
-        <v>0.1870999525495479</v>
+        <v>0.507310274664555</v>
       </c>
       <c r="D22">
-        <v>0.1694415443171931</v>
+        <v>0.3657990192784144</v>
       </c>
       <c r="E22">
-        <v>0.103395512428563</v>
+        <v>0.3999172757230106</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.1362317098648661</v>
+        <v>-0.3207851838267277</v>
       </c>
       <c r="C23">
-        <v>0.4545854239001708</v>
+        <v>0.825584367872885</v>
       </c>
       <c r="D23">
-        <v>0.367324772353583</v>
+        <v>0.8060950565133939</v>
       </c>
       <c r="E23">
-        <v>0.09649405369687077</v>
+        <v>0.1384728191011965</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.3569519758137966</v>
+        <v>-0.2502991952021227</v>
       </c>
       <c r="C24">
-        <v>0.9152481167415012</v>
+        <v>0.5600001129230945</v>
       </c>
       <c r="D24">
-        <v>0.747053078876351</v>
+        <v>0.6164195941597709</v>
       </c>
       <c r="E24">
-        <v>0.2273109504480078</v>
+        <v>0.4021353518826548</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.3092809607023447</v>
+        <v>-0.3184558022714779</v>
       </c>
       <c r="C25">
-        <v>0.7412139127317815</v>
+        <v>0.7856131977545906</v>
       </c>
       <c r="D25">
-        <v>0.6259112775701706</v>
+        <v>0.5203558127405135</v>
       </c>
       <c r="E25">
-        <v>0.444573983439492</v>
+        <v>0.4944411532986372</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.2822167833931429</v>
+        <v>-0.1971611926884244</v>
       </c>
       <c r="C26">
-        <v>0.7215191864925231</v>
+        <v>0.3791256382242238</v>
       </c>
       <c r="D26">
-        <v>0.8106964335600882</v>
+        <v>0.5563674024413038</v>
       </c>
       <c r="E26">
-        <v>0.1400991455031417</v>
+        <v>0.2267174717843635</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.243753232359066</v>
+        <v>-0.001483456614010651</v>
       </c>
       <c r="C27">
-        <v>0.5687604759544304</v>
+        <v>0.003740090661275287</v>
       </c>
       <c r="D27">
-        <v>0.6707860502956099</v>
+        <v>0.003071881406050741</v>
       </c>
       <c r="E27">
-        <v>0.07564537284489663</v>
+        <v>0.002539055525074909</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.3133631983304994</v>
+        <v>-0.00113569982012398</v>
       </c>
       <c r="C28">
-        <v>0.9488998416034731</v>
+        <v>0.003127610439934268</v>
       </c>
       <c r="D28">
-        <v>0.5722317052746873</v>
+        <v>0.002995974962298989</v>
       </c>
       <c r="E28">
-        <v>0.1760359331750409</v>
+        <v>0.002028708410412884</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.2389104275503124</v>
+        <v>-0.1797387750857732</v>
       </c>
       <c r="C29">
-        <v>0.7812884659288488</v>
+        <v>0.6860722192504909</v>
       </c>
       <c r="D29">
-        <v>0.5955333891233128</v>
+        <v>0.4471387753011634</v>
       </c>
       <c r="E29">
-        <v>0.1651479328471874</v>
+        <v>0.1823822631051256</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.2431480186749753</v>
+        <v>-0.001436922119645867</v>
       </c>
       <c r="C30">
-        <v>0.6291133352014783</v>
+        <v>0.003280681398262457</v>
       </c>
       <c r="D30">
-        <v>0.756694683870158</v>
+        <v>0.003050167503940779</v>
       </c>
       <c r="E30">
-        <v>0.148440769999369</v>
+        <v>0.002986683350896125</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.2138467450385058</v>
+        <v>-0.3320223205325438</v>
       </c>
       <c r="C31">
-        <v>0.603089439520504</v>
+        <v>0.8250345643402679</v>
       </c>
       <c r="D31">
-        <v>0.4135516482170438</v>
+        <v>0.7778071920978834</v>
       </c>
       <c r="E31">
-        <v>0.3168830678903288</v>
+        <v>0.2366610083390417</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.3294946358699946</v>
+        <v>-0.001479816459477212</v>
       </c>
       <c r="C32">
-        <v>1.008657671991408</v>
+        <v>0.003836589209278934</v>
       </c>
       <c r="D32">
-        <v>0.67801130785745</v>
+        <v>0.002847388002132499</v>
       </c>
       <c r="E32">
-        <v>0.1519936644872441</v>
+        <v>0.002642228645809963</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.1675860433227299</v>
+        <v>-0.06853477580689848</v>
       </c>
       <c r="C33">
-        <v>0.4580678280844978</v>
+        <v>0.209976696650695</v>
       </c>
       <c r="D33">
-        <v>0.3793747275955789</v>
+        <v>0.155409096965715</v>
       </c>
       <c r="E33">
-        <v>0.2071663505883797</v>
+        <v>0.1289115683971223</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.295168553044403</v>
+        <v>-0.07707415512256509</v>
       </c>
       <c r="C34">
-        <v>0.8326490182425823</v>
+        <v>0.235192828820067</v>
       </c>
       <c r="D34">
-        <v>0.7267704080615307</v>
+        <v>0.1824115498852339</v>
       </c>
       <c r="E34">
-        <v>0.2450813991962438</v>
+        <v>0.09216287896758751</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2069990759335927</v>
+        <v>-0.167704429299404</v>
       </c>
       <c r="C35">
-        <v>0.3919156418364574</v>
+        <v>0.4365777581986937</v>
       </c>
       <c r="D35">
-        <v>0.4593197117494094</v>
+        <v>0.4793134070321733</v>
       </c>
       <c r="E35">
-        <v>0.3151227901278394</v>
+        <v>0.2204156895543526</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.2576732521122561</v>
+        <v>-0.221539676824502</v>
       </c>
       <c r="C36">
-        <v>0.5523579309475678</v>
+        <v>0.670350397795507</v>
       </c>
       <c r="D36">
-        <v>0.759689435826772</v>
+        <v>0.4825526416788668</v>
       </c>
       <c r="E36">
-        <v>0.3873832763046331</v>
+        <v>0.3732971089897167</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.01001243832804766</v>
+        <v>-0.1695116632912678</v>
       </c>
       <c r="C37">
-        <v>0.02195793393994985</v>
+        <v>0.4484626718324856</v>
       </c>
       <c r="D37">
-        <v>0.02956973071815604</v>
+        <v>0.3533043329569504</v>
       </c>
       <c r="E37">
-        <v>0.01586273114993538</v>
+        <v>0.3117820210240885</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.1870446954012714</v>
+        <v>-0.2558825621889829</v>
       </c>
       <c r="C38">
-        <v>0.5013272058073922</v>
+        <v>0.559785346874204</v>
       </c>
       <c r="D38">
-        <v>0.438524715366806</v>
+        <v>0.5774083381787515</v>
       </c>
       <c r="E38">
-        <v>0.1822277375564062</v>
+        <v>0.2876782513536675</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.1846858760332498</v>
+        <v>-0.1692417442496987</v>
       </c>
       <c r="C39">
-        <v>0.6085832046561439</v>
+        <v>0.5112327668910646</v>
       </c>
       <c r="D39">
-        <v>0.4561445567799173</v>
+        <v>0.3940495953228529</v>
       </c>
       <c r="E39">
-        <v>0.1161144783433426</v>
+        <v>0.2071319897930762</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.01467536824673127</v>
+        <v>-0.2260125669579501</v>
       </c>
       <c r="C40">
-        <v>0.02978422368273869</v>
+        <v>0.4710792821503063</v>
       </c>
       <c r="D40">
-        <v>0.03086096109623252</v>
+        <v>0.660406101243701</v>
       </c>
       <c r="E40">
-        <v>0.02241761459632636</v>
+        <v>0.2461071209986856</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.2133230358220548</v>
+        <v>-0.09562256595846394</v>
       </c>
       <c r="C41">
-        <v>0.5953902780840755</v>
+        <v>0.2495423668366641</v>
       </c>
       <c r="D41">
-        <v>0.580274676665567</v>
+        <v>0.1844583385767333</v>
       </c>
       <c r="E41">
-        <v>0.166065559332467</v>
+        <v>0.1366476109901602</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.01180339971847561</v>
+        <v>-0.1396988802688026</v>
       </c>
       <c r="C42">
-        <v>0.02782319312833674</v>
+        <v>0.386746903056863</v>
       </c>
       <c r="D42">
-        <v>0.02680736401946683</v>
+        <v>0.3650232853874682</v>
       </c>
       <c r="E42">
-        <v>0.01975519588301673</v>
+        <v>0.253186503323105</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.2152629601750435</v>
+        <v>-0.001555587306180857</v>
       </c>
       <c r="C43">
-        <v>0.5407379654977124</v>
+        <v>0.003204233701750945</v>
       </c>
       <c r="D43">
-        <v>0.518943925649154</v>
+        <v>0.003483765494952277</v>
       </c>
       <c r="E43">
-        <v>0.248414955287052</v>
+        <v>0.003005201308525094</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.00813152756753131</v>
+        <v>-0.001171210113084628</v>
       </c>
       <c r="C44">
-        <v>0.02506039806646738</v>
+        <v>0.003408658661038895</v>
       </c>
       <c r="D44">
-        <v>0.02313376546847834</v>
+        <v>0.002482179916159742</v>
       </c>
       <c r="E44">
-        <v>0.01215726277977465</v>
+        <v>0.0024069214188768</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.3054092299335393</v>
+        <v>-0.261453985358469</v>
       </c>
       <c r="C45">
-        <v>0.9164066630435036</v>
+        <v>0.6041628954796726</v>
       </c>
       <c r="D45">
-        <v>0.7201111353825144</v>
+        <v>0.771071921579044</v>
       </c>
       <c r="E45">
-        <v>-0.01857435875494774</v>
+        <v>0.2189196368182628</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.1366092219902474</v>
+        <v>-0.09248370874882007</v>
       </c>
       <c r="C46">
-        <v>0.4334664038543222</v>
+        <v>0.2158898070435423</v>
       </c>
       <c r="D46">
-        <v>0.3862247461229666</v>
+        <v>0.2062826736820148</v>
       </c>
       <c r="E46">
-        <v>0.1227303082652894</v>
+        <v>0.1445631796731248</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.245770227025785</v>
+        <v>-0.2022807535875293</v>
       </c>
       <c r="C47">
-        <v>0.728861179389678</v>
+        <v>0.5521587283065206</v>
       </c>
       <c r="D47">
-        <v>0.3618035073449736</v>
+        <v>0.4522971622033334</v>
       </c>
       <c r="E47">
-        <v>0.3235944962928257</v>
+        <v>0.1732246166227921</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.2412653856905542</v>
+        <v>-0.2199012722203196</v>
       </c>
       <c r="C48">
-        <v>0.5220113159738725</v>
+        <v>0.6236357540859517</v>
       </c>
       <c r="D48">
-        <v>0.594860262696056</v>
+        <v>0.5773514163874047</v>
       </c>
       <c r="E48">
-        <v>0.2325045072027067</v>
+        <v>0.3053111234354721</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.2786214836548854</v>
+        <v>-0.2053358832868484</v>
       </c>
       <c r="C49">
-        <v>0.7885601804520018</v>
+        <v>0.4282641610321214</v>
       </c>
       <c r="D49">
-        <v>0.7629266808611259</v>
+        <v>0.5211866768951438</v>
       </c>
       <c r="E49">
-        <v>0.2411967902715252</v>
+        <v>0.2428901219225822</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.2835550276260869</v>
+        <v>-0.242114418696085</v>
       </c>
       <c r="C50">
-        <v>0.8063701080154341</v>
+        <v>0.6761442750125041</v>
       </c>
       <c r="D50">
-        <v>0.5801765613918909</v>
+        <v>0.5389109947755943</v>
       </c>
       <c r="E50">
-        <v>0.3481301928360394</v>
+        <v>0.3432820864496633</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.3521120578835976</v>
+        <v>-0.1826826277769499</v>
       </c>
       <c r="C51">
-        <v>0.8347959429843503</v>
+        <v>0.6265671110989653</v>
       </c>
       <c r="D51">
-        <v>0.8531111391050146</v>
+        <v>0.3618722336517223</v>
       </c>
       <c r="E51">
-        <v>0.2681390332984319</v>
+        <v>0.2746807245402252</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1948605975078371</v>
+        <v>-0.2682168536074166</v>
       </c>
       <c r="C52">
-        <v>0.4675615846216506</v>
+        <v>0.6899493188832225</v>
       </c>
       <c r="D52">
-        <v>0.6211353255668582</v>
+        <v>0.6221889649417385</v>
       </c>
       <c r="E52">
-        <v>0.04929120402862996</v>
+        <v>0.3015798551733236</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1859261477211182</v>
+        <v>-0.001576430740662027</v>
       </c>
       <c r="C53">
-        <v>0.5229740867654392</v>
+        <v>0.003008612308564488</v>
       </c>
       <c r="D53">
-        <v>0.465697988669373</v>
+        <v>0.003558305544919714</v>
       </c>
       <c r="E53">
-        <v>0.2181987023359201</v>
+        <v>0.003166612314957808</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.195563502068295</v>
+        <v>-0.01371148162914011</v>
       </c>
       <c r="C54">
-        <v>0.5213281191861897</v>
+        <v>0.04001601524042096</v>
       </c>
       <c r="D54">
-        <v>0.435103255371771</v>
+        <v>0.02612180373321869</v>
       </c>
       <c r="E54">
-        <v>0.169023366630872</v>
+        <v>0.01835573563691888</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.2245821317849661</v>
+        <v>-0.01296802584312207</v>
       </c>
       <c r="C55">
-        <v>0.6020896677041122</v>
+        <v>0.03471170516819354</v>
       </c>
       <c r="D55">
-        <v>0.5156775878246622</v>
+        <v>0.02706653162735803</v>
       </c>
       <c r="E55">
-        <v>0.2322361151597665</v>
+        <v>0.02303521813420573</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.2921434115437356</v>
+        <v>-0.2513644289241732</v>
       </c>
       <c r="C56">
-        <v>0.9538466396842885</v>
+        <v>0.643516273886478</v>
       </c>
       <c r="D56">
-        <v>0.7412690374183393</v>
+        <v>0.6109776267506579</v>
       </c>
       <c r="E56">
-        <v>0.05563776582026226</v>
+        <v>0.3052050277413082</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.2999036253088764</v>
+        <v>-0.001212809684649322</v>
       </c>
       <c r="C57">
-        <v>0.8495974643284311</v>
+        <v>0.003344236215455311</v>
       </c>
       <c r="D57">
-        <v>1.0396756269482</v>
+        <v>0.002887646810129852</v>
       </c>
       <c r="E57">
-        <v>-0.006491174458084295</v>
+        <v>0.002207756074292628</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.06900086735166013</v>
+        <v>-0.00126992041982854</v>
       </c>
       <c r="C58">
-        <v>0.1819900854226945</v>
+        <v>0.002999530869150296</v>
       </c>
       <c r="D58">
-        <v>0.1676442583339277</v>
+        <v>0.003110181149022595</v>
       </c>
       <c r="E58">
-        <v>0.1187647068275991</v>
+        <v>0.002628136446362682</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-4.239313740120712E-06</v>
+        <v>-0.1433935013526485</v>
       </c>
       <c r="C59">
-        <v>0.002734193854948634</v>
+        <v>0.4332385611418963</v>
       </c>
       <c r="D59">
-        <v>0.002709081849240255</v>
+        <v>0.4448978925452162</v>
       </c>
       <c r="E59">
-        <v>0.001959135463921988</v>
+        <v>0.1565583398136436</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.08876087504991671</v>
+        <v>-0.0129350334344999</v>
       </c>
       <c r="C60">
-        <v>0.2110746756523228</v>
+        <v>0.03509429007891667</v>
       </c>
       <c r="D60">
-        <v>0.1836583281960157</v>
+        <v>0.02792182842056794</v>
       </c>
       <c r="E60">
-        <v>0.1387371196513618</v>
+        <v>0.02112831220378201</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.01283775188177117</v>
+        <v>-0.001229697883455475</v>
       </c>
       <c r="C61">
-        <v>0.02577500697836983</v>
+        <v>0.003057280125519497</v>
       </c>
       <c r="D61">
-        <v>0.03165291781539006</v>
+        <v>0.003075202367782601</v>
       </c>
       <c r="E61">
-        <v>0.01969539226574615</v>
+        <v>0.002449956147696902</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.210407265892355</v>
+        <v>-0.1576263814922183</v>
       </c>
       <c r="C62">
-        <v>0.3977665925456982</v>
+        <v>0.4456435831290382</v>
       </c>
       <c r="D62">
-        <v>0.556312721823395</v>
+        <v>0.4134387774863011</v>
       </c>
       <c r="E62">
-        <v>0.2149418925287352</v>
+        <v>0.1918071699913309</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-3.890519987623736E-06</v>
+        <v>-0.3055863732437828</v>
       </c>
       <c r="C63">
-        <v>0.002548651089288187</v>
+        <v>0.7069287327228858</v>
       </c>
       <c r="D63">
-        <v>0.00298710401901687</v>
+        <v>0.9138202303859755</v>
       </c>
       <c r="E63">
-        <v>0.001303873252901422</v>
+        <v>0.1132222746238259</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.1763514101440289</v>
+        <v>-0.2377504419305595</v>
       </c>
       <c r="C64">
-        <v>0.4636059346214282</v>
+        <v>0.5554564677993989</v>
       </c>
       <c r="D64">
-        <v>0.4145683294517664</v>
+        <v>0.6142929282542033</v>
       </c>
       <c r="E64">
-        <v>0.2050729818886418</v>
+        <v>0.2688498448834761</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.396272201332773</v>
+        <v>-0.2638770948312979</v>
       </c>
       <c r="C65">
-        <v>0.9436793638854208</v>
+        <v>0.6511039114501093</v>
       </c>
       <c r="D65">
-        <v>0.7961461797770519</v>
+        <v>0.7611127458588576</v>
       </c>
       <c r="E65">
-        <v>0.3007507497756308</v>
+        <v>0.231096024506271</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.193267145483991</v>
+        <v>-0.2991864677109042</v>
       </c>
       <c r="C66">
-        <v>0.564362406392522</v>
+        <v>0.7920432002934608</v>
       </c>
       <c r="D66">
-        <v>0.5532139955108485</v>
+        <v>0.603826726671029</v>
       </c>
       <c r="E66">
-        <v>0.132708471528828</v>
+        <v>0.3585782815382735</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.2174824248330114</v>
+        <v>-0.01050843650176562</v>
       </c>
       <c r="C67">
-        <v>0.4635349865643298</v>
+        <v>0.02919694018643742</v>
       </c>
       <c r="D67">
-        <v>0.6095801831633741</v>
+        <v>0.0256028407028867</v>
       </c>
       <c r="E67">
-        <v>0.2030617337815327</v>
+        <v>0.02222205707906024</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.3039096581342149</v>
+        <v>-0.2845072983639089</v>
       </c>
       <c r="C68">
-        <v>0.7124199185085347</v>
+        <v>0.8396254170565171</v>
       </c>
       <c r="D68">
-        <v>1.019693803670471</v>
+        <v>0.4123143183264996</v>
       </c>
       <c r="E68">
-        <v>-0.02350450588673242</v>
+        <v>0.3852781997467351</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1577690102293077</v>
+        <v>-0.328687503438286</v>
       </c>
       <c r="C69">
-        <v>0.3859177512781242</v>
+        <v>0.6171930704286295</v>
       </c>
       <c r="D69">
-        <v>0.418768398338665</v>
+        <v>0.8315794741789155</v>
       </c>
       <c r="E69">
-        <v>0.243224642617929</v>
+        <v>0.4245609749376871</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.08883863253201645</v>
+        <v>-0.266158789935853</v>
       </c>
       <c r="C70">
-        <v>0.1826539224560087</v>
+        <v>0.6107034683310781</v>
       </c>
       <c r="D70">
-        <v>0.2393404659355119</v>
+        <v>0.7227370888807326</v>
       </c>
       <c r="E70">
-        <v>0.0897922379877469</v>
+        <v>0.2215828567667459</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2558283514212868</v>
+        <v>-0.3378792180072507</v>
       </c>
       <c r="C71">
-        <v>0.6383890156358802</v>
+        <v>0.7961213985131296</v>
       </c>
       <c r="D71">
-        <v>0.452476323607877</v>
+        <v>0.844992745732804</v>
       </c>
       <c r="E71">
-        <v>0.3154611734968585</v>
+        <v>0.1916284938744322</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1761230163849432</v>
+        <v>-0.07398188420751681</v>
       </c>
       <c r="C72">
-        <v>0.4295841997435471</v>
+        <v>0.2055983061698241</v>
       </c>
       <c r="D72">
-        <v>0.47079778642403</v>
+        <v>0.171904727300188</v>
       </c>
       <c r="E72">
-        <v>0.3089263863781356</v>
+        <v>0.1337185763803576</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.3267420037521169</v>
+        <v>-0.001381641104713104</v>
       </c>
       <c r="C73">
-        <v>0.9337572077274343</v>
+        <v>0.003092714357347238</v>
       </c>
       <c r="D73">
-        <v>0.9184106325267454</v>
+        <v>0.003285646278369331</v>
       </c>
       <c r="E73">
-        <v>-0.1155906235445421</v>
+        <v>0.002735125735669733</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.170031663601842</v>
+        <v>-0.1915677295023125</v>
       </c>
       <c r="C74">
-        <v>0.4881287638950361</v>
+        <v>0.6009392080213687</v>
       </c>
       <c r="D74">
-        <v>0.466013472289747</v>
+        <v>0.5540112616819161</v>
       </c>
       <c r="E74">
-        <v>0.2569215294157799</v>
+        <v>0.06288859354179362</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1469358477690028</v>
+        <v>-0.3547922770625802</v>
       </c>
       <c r="C75">
-        <v>0.3296723889482231</v>
+        <v>0.7328399654282689</v>
       </c>
       <c r="D75">
-        <v>0.5045767511818217</v>
+        <v>0.9529797104220233</v>
       </c>
       <c r="E75">
-        <v>0.1080928787405324</v>
+        <v>0.2172683364641719</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.1915517639073531</v>
+        <v>-0.1781708141883924</v>
       </c>
       <c r="C76">
-        <v>0.5907546823382231</v>
+        <v>0.5440153949896839</v>
       </c>
       <c r="D76">
-        <v>0.336700107656697</v>
+        <v>0.3758874017131253</v>
       </c>
       <c r="E76">
-        <v>0.1197046727109691</v>
+        <v>0.1373645121862824</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.1718577000805916</v>
+        <v>-0.1770716997781568</v>
       </c>
       <c r="C77">
-        <v>0.4833314296182086</v>
+        <v>0.4582975263379795</v>
       </c>
       <c r="D77">
-        <v>0.5102745675030758</v>
+        <v>0.4326193623098515</v>
       </c>
       <c r="E77">
-        <v>0.1839689424799081</v>
+        <v>0.2089882549476207</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-3.135124377838685E-06</v>
+        <v>-0.2792263468826089</v>
       </c>
       <c r="C78">
-        <v>0.001964309449532659</v>
+        <v>0.8229055706560985</v>
       </c>
       <c r="D78">
-        <v>0.002642720876426566</v>
+        <v>0.6169594904359045</v>
       </c>
       <c r="E78">
-        <v>0.001718187291312956</v>
+        <v>0.3204944251791217</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.1887491045494928</v>
+        <v>-0.3734112872214534</v>
       </c>
       <c r="C79">
-        <v>0.4787818652846781</v>
+        <v>0.919713072629662</v>
       </c>
       <c r="D79">
-        <v>0.5006667729159877</v>
+        <v>0.9613786121893304</v>
       </c>
       <c r="E79">
-        <v>0.1874662338449136</v>
+        <v>0.2304897562455865</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.3677744463035951</v>
+        <v>-0.2346371010002669</v>
       </c>
       <c r="C80">
-        <v>1.06316454645882</v>
+        <v>0.4425117323819262</v>
       </c>
       <c r="D80">
-        <v>1.112736339757617</v>
+        <v>0.6392532080470555</v>
       </c>
       <c r="E80">
-        <v>-0.05703561735402841</v>
+        <v>0.4240940955516249</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.1705940907042916</v>
+        <v>-0.1512831627279779</v>
       </c>
       <c r="C81">
-        <v>0.4394137266810567</v>
+        <v>0.4421070093443155</v>
       </c>
       <c r="D81">
-        <v>0.5184587064440298</v>
+        <v>0.3884019028257872</v>
       </c>
       <c r="E81">
-        <v>0.08609843459382019</v>
+        <v>0.2440276058128041</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.2143782786360994</v>
+        <v>-0.2179628735839294</v>
       </c>
       <c r="C82">
-        <v>0.6097475845333534</v>
+        <v>0.5745698751285301</v>
       </c>
       <c r="D82">
-        <v>0.5339376186169722</v>
+        <v>0.4361773958229591</v>
       </c>
       <c r="E82">
-        <v>0.1943882536441288</v>
+        <v>0.3437654361188119</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.06948450834987371</v>
+        <v>-0.3429948434440698</v>
       </c>
       <c r="C83">
-        <v>0.1802979410461313</v>
+        <v>0.8416185958857006</v>
       </c>
       <c r="D83">
-        <v>0.1836508902229788</v>
+        <v>0.7560826099023721</v>
       </c>
       <c r="E83">
-        <v>0.09924356968194048</v>
+        <v>0.3210136858446445</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.17794184284716</v>
+        <v>-0.2599508439427182</v>
       </c>
       <c r="C84">
-        <v>0.4921349971368089</v>
+        <v>0.6647551280089858</v>
       </c>
       <c r="D84">
-        <v>0.4992251451724665</v>
+        <v>0.4921191073898578</v>
       </c>
       <c r="E84">
-        <v>0.1554623461067269</v>
+        <v>0.4188873986859998</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.4679607605282459</v>
+        <v>-0.2002939831715267</v>
       </c>
       <c r="C85">
-        <v>0.8604368186227443</v>
+        <v>0.5252413182367467</v>
       </c>
       <c r="D85">
-        <v>1.188464300838358</v>
+        <v>0.4077969529021435</v>
       </c>
       <c r="E85">
-        <v>0.2335946632110189</v>
+        <v>0.2364213213554693</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.2201652776588548</v>
+        <v>-0.3562865487250552</v>
       </c>
       <c r="C86">
-        <v>0.6142265284547394</v>
+        <v>0.8332216762314173</v>
       </c>
       <c r="D86">
-        <v>0.7128157437717182</v>
+        <v>0.7473892106444875</v>
       </c>
       <c r="E86">
-        <v>0.0752087215383223</v>
+        <v>0.3387389104261769</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.3652248779084245</v>
+        <v>-0.001236878492001926</v>
       </c>
       <c r="C87">
-        <v>0.9223310100843011</v>
+        <v>0.002470296508684048</v>
       </c>
       <c r="D87">
-        <v>0.7310324746621425</v>
+        <v>0.003141484676028353</v>
       </c>
       <c r="E87">
-        <v>0.2497152223875415</v>
+        <v>0.002979285908716048</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.1416391218086033</v>
+        <v>-0.1972080900584375</v>
       </c>
       <c r="C88">
-        <v>0.5016426666247301</v>
+        <v>0.5507841400310518</v>
       </c>
       <c r="D88">
-        <v>0.299463275681063</v>
+        <v>0.5787161456867697</v>
       </c>
       <c r="E88">
-        <v>0.1769005345789158</v>
+        <v>0.2790027476301934</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.3179317525924331</v>
+        <v>-0.01225585039340744</v>
       </c>
       <c r="C89">
-        <v>0.8319126740821117</v>
+        <v>0.03440924464303315</v>
       </c>
       <c r="D89">
-        <v>0.7393959151005718</v>
+        <v>0.02442803430784084</v>
       </c>
       <c r="E89">
-        <v>0.2041604406080295</v>
+        <v>0.02349597007192988</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.01130222340053547</v>
+        <v>-0.2598331905229547</v>
       </c>
       <c r="C90">
-        <v>0.02396238450266235</v>
+        <v>0.6651956903805072</v>
       </c>
       <c r="D90">
-        <v>0.03038429001499625</v>
+        <v>0.601615765877893</v>
       </c>
       <c r="E90">
-        <v>0.01777527493016205</v>
+        <v>0.3501439981083054</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.3333779150811294</v>
+        <v>-0.1892515326352517</v>
       </c>
       <c r="C91">
-        <v>0.8582024631243759</v>
+        <v>0.5459689587878386</v>
       </c>
       <c r="D91">
-        <v>0.8978476929383322</v>
+        <v>0.4989390416309467</v>
       </c>
       <c r="E91">
-        <v>-0.07258516734332845</v>
+        <v>0.2343275614503002</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.1991759121908713</v>
+        <v>-0.2056523319678087</v>
       </c>
       <c r="C92">
-        <v>0.5359259418297724</v>
+        <v>0.460770131461429</v>
       </c>
       <c r="D92">
-        <v>0.5259837420874093</v>
+        <v>0.4344133770625072</v>
       </c>
       <c r="E92">
-        <v>0.1540953154968011</v>
+        <v>0.4369338340126663</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.008696611038940476</v>
+        <v>-0.117036411322438</v>
       </c>
       <c r="C93">
-        <v>0.02050591620133408</v>
+        <v>0.2689082224984177</v>
       </c>
       <c r="D93">
-        <v>0.02617789979755275</v>
+        <v>0.4157922573294376</v>
       </c>
       <c r="E93">
-        <v>0.01685783479769338</v>
+        <v>0.2149630402094445</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.1991990209441887</v>
+        <v>-0.3289005084745641</v>
       </c>
       <c r="C94">
-        <v>0.532661121275712</v>
+        <v>0.7225639961875714</v>
       </c>
       <c r="D94">
-        <v>0.4248026234755051</v>
+        <v>0.7817646367232823</v>
       </c>
       <c r="E94">
-        <v>0.1595270085612348</v>
+        <v>0.3603534114205266</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.3945062525646307</v>
+        <v>-0.1613982743248137</v>
       </c>
       <c r="C95">
-        <v>0.9975583525372456</v>
+        <v>0.3607312991307972</v>
       </c>
       <c r="D95">
-        <v>0.9893585984731597</v>
+        <v>0.3630635111644166</v>
       </c>
       <c r="E95">
-        <v>-0.02658692250361905</v>
+        <v>0.3437658099544018</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.1611539889166723</v>
+        <v>-0.1572326997145891</v>
       </c>
       <c r="C96">
-        <v>0.4237811288841702</v>
+        <v>0.5074454014046126</v>
       </c>
       <c r="D96">
-        <v>0.4028934824750655</v>
+        <v>0.3836208296404603</v>
       </c>
       <c r="E96">
-        <v>0.2135187512540322</v>
+        <v>0.2870665662674379</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.07532328611635249</v>
+        <v>-0.3049709886969735</v>
       </c>
       <c r="C97">
-        <v>0.2269745697928841</v>
+        <v>0.8703443367997081</v>
       </c>
       <c r="D97">
-        <v>0.1705095888517958</v>
+        <v>0.5819648142643472</v>
       </c>
       <c r="E97">
-        <v>0.06746535248526309</v>
+        <v>0.212068847394659</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1952615874878571</v>
+        <v>-0.1818289499794206</v>
       </c>
       <c r="C98">
-        <v>0.4917392488231567</v>
+        <v>0.4905897344731719</v>
       </c>
       <c r="D98">
-        <v>0.4446860566461471</v>
+        <v>0.3849654239724055</v>
       </c>
       <c r="E98">
-        <v>0.2289432786613042</v>
+        <v>0.2877898657687656</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.2079165738559705</v>
+        <v>-0.296139786553377</v>
       </c>
       <c r="C99">
-        <v>0.5871635643795806</v>
+        <v>0.6781438165072476</v>
       </c>
       <c r="D99">
-        <v>0.4596988623003881</v>
+        <v>0.7308384332707556</v>
       </c>
       <c r="E99">
-        <v>0.2413267973611425</v>
+        <v>0.3166251166595</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.2430183808731259</v>
+        <v>-0.3595879566589121</v>
       </c>
       <c r="C100">
-        <v>0.6392580094545774</v>
+        <v>1.037630476191248</v>
       </c>
       <c r="D100">
-        <v>0.6976769784512213</v>
+        <v>0.5481837716931102</v>
       </c>
       <c r="E100">
-        <v>0.2431891395975779</v>
+        <v>0.3320356542223094</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.05184494399207993</v>
+        <v>-0.001268084387502292</v>
       </c>
       <c r="C101">
-        <v>0.1808175908289414</v>
+        <v>0.003135996394410658</v>
       </c>
       <c r="D101">
-        <v>0.1351507986412419</v>
+        <v>0.002703300255450279</v>
       </c>
       <c r="E101">
-        <v>0.086740794941012</v>
+        <v>0.002902300718475983</v>
       </c>
     </row>
   </sheetData>
